--- a/addition/getCode/github_code_stats.xlsx
+++ b/addition/getCode/github_code_stats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\ziming\github\Chaincode\addition\getCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mailb\Documents\GitHub\Chaincode\addition\getCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED139FF-DE60-48D5-B8B4-8A364822B6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B08498-AD32-4846-8F66-FD31A11DAEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="github_code_stats" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2612" uniqueCount="1276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2617" uniqueCount="1281">
   <si>
     <t>Index</t>
   </si>
@@ -3937,6 +3937,26 @@
   </si>
   <si>
     <t>119, 144, 331, 341, 343, 349, 411, 425</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3类误报2，返回值为函数调用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1类误报1，嵌套函数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3类漏报3（39, 41, 60），嵌套函数隐私数据未标注</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3类漏报1（92），发生1类漏洞隐私数据未标注</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2类误报1，隐私数据用于验签不会泄露</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4114,7 +4134,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4292,6 +4312,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -4542,7 +4568,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4550,6 +4576,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -28882,15 +28911,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114E6189-9570-48DE-86E6-440C3A219C3F}">
-  <dimension ref="A1:M201"/>
+  <dimension ref="A1:O201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="R43" sqref="R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -28931,7 +28960,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100</v>
       </c>
@@ -28953,8 +28982,17 @@
       <c r="G2">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>113</v>
       </c>
@@ -28989,7 +29027,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>123</v>
       </c>
@@ -29011,8 +29049,17 @@
       <c r="G4">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>178</v>
       </c>
@@ -29034,8 +29081,17 @@
       <c r="G5">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>37</v>
       </c>
@@ -29057,8 +29113,17 @@
       <c r="G6">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>125</v>
       </c>
@@ -29093,7 +29158,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>50</v>
       </c>
@@ -29115,8 +29180,17 @@
       <c r="G8">
         <v>81</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>95</v>
       </c>
@@ -29138,8 +29212,17 @@
       <c r="G9">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>103</v>
       </c>
@@ -29161,8 +29244,17 @@
       <c r="G10">
         <v>87</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14</v>
       </c>
@@ -29184,8 +29276,17 @@
       <c r="G11">
         <v>91</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>87</v>
       </c>
@@ -29207,8 +29308,17 @@
       <c r="G12">
         <v>91</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>170</v>
       </c>
@@ -29230,8 +29340,17 @@
       <c r="G13">
         <v>91</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>154</v>
       </c>
@@ -29253,8 +29372,17 @@
       <c r="G14">
         <v>97</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>180</v>
       </c>
@@ -29291,8 +29419,11 @@
       <c r="M15" t="s">
         <v>1274</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -29327,7 +29458,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>31</v>
       </c>
@@ -29349,8 +29480,17 @@
       <c r="G17">
         <v>106</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>47</v>
       </c>
@@ -29387,8 +29527,11 @@
       <c r="M18" t="s">
         <v>1256</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O18" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6</v>
       </c>
@@ -29410,8 +29553,17 @@
       <c r="G19">
         <v>136</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>13</v>
       </c>
@@ -29433,8 +29585,17 @@
       <c r="G20">
         <v>136</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>29</v>
       </c>
@@ -29456,8 +29617,17 @@
       <c r="G21">
         <v>136</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>41</v>
       </c>
@@ -29479,8 +29649,17 @@
       <c r="G22">
         <v>136</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>149</v>
       </c>
@@ -29502,8 +29681,17 @@
       <c r="G23">
         <v>141</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>36</v>
       </c>
@@ -29538,7 +29726,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>198</v>
       </c>
@@ -29573,7 +29761,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>122</v>
       </c>
@@ -29595,8 +29783,17 @@
       <c r="G26">
         <v>165</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>160</v>
       </c>
@@ -29633,8 +29830,14 @@
       <c r="M27">
         <v>81</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N27" t="s">
+        <v>1277</v>
+      </c>
+      <c r="O27" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>35</v>
       </c>
@@ -29656,8 +29859,17 @@
       <c r="G28">
         <v>176</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>75</v>
       </c>
@@ -29679,8 +29891,17 @@
       <c r="G29">
         <v>176</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>80</v>
       </c>
@@ -29702,8 +29923,17 @@
       <c r="G30">
         <v>177</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>193</v>
       </c>
@@ -29725,8 +29955,17 @@
       <c r="G31">
         <v>178</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>45</v>
       </c>
@@ -29748,8 +29987,17 @@
       <c r="G32">
         <v>190</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>62</v>
       </c>
@@ -29771,8 +30019,17 @@
       <c r="G33">
         <v>190</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>145</v>
       </c>
@@ -29810,7 +30067,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>25</v>
       </c>
@@ -29832,8 +30089,17 @@
       <c r="G35">
         <v>198</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>118</v>
       </c>
@@ -29871,7 +30137,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>9</v>
       </c>
@@ -29908,8 +30174,11 @@
       <c r="L37">
         <v>56</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N37" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>94</v>
       </c>
@@ -29931,8 +30200,17 @@
       <c r="G38">
         <v>208</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>52</v>
       </c>
@@ -29954,8 +30232,17 @@
       <c r="G39">
         <v>216</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>49</v>
       </c>
@@ -29977,43 +30264,52 @@
       <c r="G40">
         <v>217</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
         <v>134</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="3">
         <v>7</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="3">
         <v>32</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="3">
         <v>8</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="3">
         <v>221</v>
       </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
+      <c r="H41" s="3">
+        <v>1</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>142</v>
       </c>
@@ -30051,7 +30347,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>91</v>
       </c>
@@ -30074,7 +30370,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>171</v>
       </c>
@@ -30109,7 +30405,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>98</v>
       </c>
@@ -30144,7 +30440,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>63</v>
       </c>
@@ -30179,7 +30475,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>22</v>
       </c>
@@ -30202,7 +30498,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>32</v>
       </c>
@@ -35406,5 +35702,6 @@
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/addition/getCode/github_code_stats.xlsx
+++ b/addition/getCode/github_code_stats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mailb\Documents\GitHub\Chaincode\addition\getCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\ziming\github\Chaincode\addition\getCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B08498-AD32-4846-8F66-FD31A11DAEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B0C2CF-4EB9-43F2-900C-FB83B91C19C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21710" yWindow="-4770" windowWidth="21820" windowHeight="37900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="github_code_stats" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2617" uniqueCount="1281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="1291">
   <si>
     <t>Index</t>
   </si>
@@ -3957,6 +3957,46 @@
   </si>
   <si>
     <t>2类误报1，隐私数据用于验签不会泄露</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2类误报2，参数数量检查不会泄露隐私</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2类漏报4（168, 172, 176, 180），发生1类漏洞隐私数据未标注</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3类误报2，返回值为函数调用，保守的污点传播</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1类误报1，隐私来自函数内常量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3类漏报2，发生1类漏洞隐私数据未标注</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>102, 213, 289, 308, 316, 445, 459 ,528</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>586, 604</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>477, 496, 496</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1类误报1，隐私数据来自getP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4134,7 +4174,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4312,12 +4352,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -4578,7 +4612,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -28911,10 +28945,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114E6189-9570-48DE-86E6-440C3A219C3F}">
-  <dimension ref="A1:O201"/>
+  <dimension ref="A1:O202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="R43" sqref="R43"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -29997,7 +30031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>62</v>
       </c>
@@ -30029,7 +30063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>145</v>
       </c>
@@ -30067,7 +30101,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>25</v>
       </c>
@@ -30099,7 +30133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>118</v>
       </c>
@@ -30137,7 +30171,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>9</v>
       </c>
@@ -30178,7 +30212,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>94</v>
       </c>
@@ -30210,7 +30244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>52</v>
       </c>
@@ -30242,7 +30276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>49</v>
       </c>
@@ -30274,7 +30308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>134</v>
       </c>
@@ -30309,7 +30343,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>142</v>
       </c>
@@ -30346,8 +30380,11 @@
       <c r="M42" t="s">
         <v>1271</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N42" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>91</v>
       </c>
@@ -30369,8 +30406,17 @@
       <c r="G43">
         <v>246</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>171</v>
       </c>
@@ -30404,8 +30450,11 @@
       <c r="K44" t="s">
         <v>1245</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O44" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>98</v>
       </c>
@@ -30440,7 +30489,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>63</v>
       </c>
@@ -30475,7 +30524,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>22</v>
       </c>
@@ -30497,8 +30546,17 @@
       <c r="G47">
         <v>289</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>32</v>
       </c>
@@ -30520,8 +30578,17 @@
       <c r="G48">
         <v>289</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>104</v>
       </c>
@@ -30543,8 +30610,17 @@
       <c r="G49">
         <v>297</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>88</v>
       </c>
@@ -30566,8 +30642,17 @@
       <c r="G50">
         <v>324</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>111</v>
       </c>
@@ -30602,7 +30687,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>105</v>
       </c>
@@ -30624,8 +30709,17 @@
       <c r="G52">
         <v>338</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>12</v>
       </c>
@@ -30663,7 +30757,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>108</v>
       </c>
@@ -30701,7 +30795,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>133</v>
       </c>
@@ -30723,8 +30817,17 @@
       <c r="G55">
         <v>367</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>179</v>
       </c>
@@ -30746,8 +30849,17 @@
       <c r="G56">
         <v>367</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>190</v>
       </c>
@@ -30784,8 +30896,11 @@
       <c r="M57" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N57" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>65</v>
       </c>
@@ -30820,7 +30935,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>7</v>
       </c>
@@ -30842,8 +30957,17 @@
       <c r="G59">
         <v>444</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>53</v>
       </c>
@@ -30865,8 +30989,17 @@
       <c r="G60">
         <v>444</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>71</v>
       </c>
@@ -30888,8 +31021,17 @@
       <c r="G61">
         <v>444</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>77</v>
       </c>
@@ -30911,8 +31053,17 @@
       <c r="G62">
         <v>444</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>82</v>
       </c>
@@ -30934,8 +31085,17 @@
       <c r="G63">
         <v>444</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>84</v>
       </c>
@@ -30956,6 +31116,15 @@
       </c>
       <c r="G64">
         <v>444</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
@@ -30980,6 +31149,15 @@
       <c r="G65">
         <v>444</v>
       </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
@@ -31003,6 +31181,15 @@
       <c r="G66">
         <v>444</v>
       </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
@@ -31026,6 +31213,15 @@
       <c r="G67">
         <v>444</v>
       </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
@@ -31049,6 +31245,15 @@
       <c r="G68">
         <v>444</v>
       </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
@@ -31072,6 +31277,15 @@
       <c r="G69">
         <v>444</v>
       </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
@@ -31095,6 +31309,15 @@
       <c r="G70">
         <v>444</v>
       </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
@@ -31118,6 +31341,15 @@
       <c r="G71">
         <v>445</v>
       </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
@@ -31141,6 +31373,15 @@
       <c r="G72">
         <v>445</v>
       </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
@@ -31164,6 +31405,15 @@
       <c r="G73">
         <v>445</v>
       </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
@@ -31187,6 +31437,15 @@
       <c r="G74">
         <v>445</v>
       </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
@@ -31210,6 +31469,15 @@
       <c r="G75">
         <v>445</v>
       </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
@@ -32107,6 +32375,15 @@
       <c r="G99">
         <v>473</v>
       </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
@@ -32574,6 +32851,15 @@
       <c r="G112">
         <v>502</v>
       </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113">
@@ -33506,6 +33792,15 @@
       <c r="G137">
         <v>551</v>
       </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138">
@@ -34312,7 +34607,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>174</v>
       </c>
@@ -34347,7 +34642,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>191</v>
       </c>
@@ -34382,7 +34677,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>199</v>
       </c>
@@ -34417,7 +34712,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>132</v>
       </c>
@@ -34454,8 +34749,14 @@
       <c r="M164" t="s">
         <v>1268</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N164" t="s">
+        <v>1284</v>
+      </c>
+      <c r="O164" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>5</v>
       </c>
@@ -34490,7 +34791,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>42</v>
       </c>
@@ -34525,7 +34826,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>44</v>
       </c>
@@ -34560,7 +34861,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>73</v>
       </c>
@@ -34592,10 +34893,10 @@
         <v>8</v>
       </c>
       <c r="M168" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>135</v>
       </c>
@@ -34627,10 +34928,10 @@
         <v>8</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>187</v>
       </c>
@@ -34665,7 +34966,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>189</v>
       </c>
@@ -34700,7 +35001,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>161</v>
       </c>
@@ -34735,7 +35036,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>197</v>
       </c>
@@ -34770,7 +35071,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>60</v>
       </c>
@@ -34805,7 +35106,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>0</v>
       </c>
@@ -34840,7 +35141,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>21</v>
       </c>
@@ -35177,6 +35478,15 @@
       <c r="G185">
         <v>628</v>
       </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186">
@@ -35200,6 +35510,15 @@
       <c r="G186">
         <v>631</v>
       </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187">
@@ -35223,6 +35542,15 @@
       <c r="G187">
         <v>636</v>
       </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188">
@@ -35246,6 +35574,15 @@
       <c r="G188">
         <v>636</v>
       </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189">
@@ -35387,7 +35724,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>151</v>
       </c>
@@ -35422,7 +35759,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>165</v>
       </c>
@@ -35457,7 +35794,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>173</v>
       </c>
@@ -35492,7 +35829,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>175</v>
       </c>
@@ -35527,7 +35864,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>186</v>
       </c>
@@ -35562,7 +35899,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>153</v>
       </c>
@@ -35594,13 +35931,13 @@
         <v>7</v>
       </c>
       <c r="K198" t="s">
-        <v>1272</v>
+        <v>1287</v>
       </c>
       <c r="M198" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>90</v>
       </c>
@@ -35622,8 +35959,17 @@
       <c r="G199">
         <v>703</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>114</v>
       </c>
@@ -35655,10 +36001,13 @@
         <v>3</v>
       </c>
       <c r="M200" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1288</v>
+      </c>
+      <c r="N200" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>196</v>
       </c>
@@ -35690,10 +36039,27 @@
         <v>0</v>
       </c>
       <c r="K201" t="s">
-        <v>1259</v>
+        <v>1290</v>
       </c>
       <c r="L201" t="s">
         <v>1260</v>
+      </c>
+      <c r="N201" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H202">
+        <f>SUM(H2:H201)</f>
+        <v>99</v>
+      </c>
+      <c r="I202">
+        <f t="shared" ref="I202:J202" si="0">SUM(I2:I201)</f>
+        <v>59</v>
+      </c>
+      <c r="J202">
+        <f t="shared" si="0"/>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
